--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -20572,28 +20572,28 @@
         <v>12.92</v>
       </c>
       <c r="F491" t="n">
-        <v>11.29</v>
+        <v>11.175</v>
       </c>
       <c r="G491" t="n">
-        <v>11.32</v>
+        <v>11.255</v>
       </c>
       <c r="H491" t="n">
-        <v>11.37</v>
+        <v>11.275</v>
       </c>
       <c r="I491" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="J491" t="n">
-        <v>11.03</v>
+        <v>11.005</v>
       </c>
       <c r="K491" t="n">
-        <v>10.85</v>
+        <v>10.87</v>
       </c>
       <c r="L491" t="n">
         <v>10.82</v>
       </c>
       <c r="M491" t="n">
-        <v>10.65</v>
+        <v>11.08</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M491"/>
+  <dimension ref="A1:M492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20572,28 +20572,69 @@
         <v>12.92</v>
       </c>
       <c r="F491" t="n">
-        <v>11.175</v>
+        <v>11.29</v>
       </c>
       <c r="G491" t="n">
-        <v>11.255</v>
+        <v>11.32</v>
       </c>
       <c r="H491" t="n">
-        <v>11.275</v>
+        <v>11.37</v>
       </c>
       <c r="I491" t="n">
-        <v>11.125</v>
+        <v>11.13</v>
       </c>
       <c r="J491" t="n">
-        <v>11.005</v>
+        <v>11.03</v>
       </c>
       <c r="K491" t="n">
-        <v>10.87</v>
+        <v>10.85</v>
       </c>
       <c r="L491" t="n">
         <v>10.82</v>
       </c>
       <c r="M491" t="n">
-        <v>11.08</v>
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B492" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C492" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D492" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E492" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F492" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G492" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="H492" t="n">
+        <v>13.685</v>
+      </c>
+      <c r="I492" t="n">
+        <v>13.565</v>
+      </c>
+      <c r="J492" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="K492" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="L492" t="n">
+        <v>12.555</v>
+      </c>
+      <c r="M492" t="n">
+        <v>11.87</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M492"/>
+  <dimension ref="A1:M493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20613,28 +20613,69 @@
         <v>16.4</v>
       </c>
       <c r="F492" t="n">
-        <v>13.6</v>
+        <v>15.8</v>
       </c>
       <c r="G492" t="n">
-        <v>14.11</v>
+        <v>15.63</v>
       </c>
       <c r="H492" t="n">
-        <v>13.685</v>
+        <v>15.6</v>
       </c>
       <c r="I492" t="n">
-        <v>13.565</v>
+        <v>13.98</v>
       </c>
       <c r="J492" t="n">
-        <v>13.995</v>
+        <v>15.18</v>
       </c>
       <c r="K492" t="n">
-        <v>12.63</v>
+        <v>12.67</v>
       </c>
       <c r="L492" t="n">
-        <v>12.555</v>
+        <v>13.01</v>
       </c>
       <c r="M492" t="n">
-        <v>11.87</v>
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B493" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C493" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D493" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="E493" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F493" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="G493" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="H493" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="I493" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="J493" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="K493" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="L493" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="M493" t="n">
+        <v>11.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M493"/>
+  <dimension ref="A1:M494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20678,6 +20678,47 @@
         <v>11.64</v>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B494" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="C494" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="D494" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="E494" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="F494" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="G494" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="H494" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="I494" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J494" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="K494" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="L494" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M494" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M494"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20719,6 +20719,47 @@
         <v>12.11</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B495" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="C495" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D495" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="E495" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="F495" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="G495" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H495" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="I495" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J495" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="K495" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="L495" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="M495" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20760,6 +20760,47 @@
         <v>12.08</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B496" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="C496" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D496" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="E496" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="F496" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="G496" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H496" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="I496" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="J496" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="K496" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="L496" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="M496" t="n">
+        <v>12.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M496"/>
+  <dimension ref="A1:M497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20801,6 +20801,47 @@
         <v>12.24</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B497" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="C497" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="D497" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="E497" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F497" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="G497" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="H497" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I497" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="J497" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="K497" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="L497" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="M497" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M497"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20842,6 +20842,47 @@
         <v>13.23</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B498" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="C498" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D498" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E498" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="F498" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G498" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H498" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I498" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J498" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="K498" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L498" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M498" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M498"/>
+  <dimension ref="A1:M499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20654,28 +20654,28 @@
         <v>17.92</v>
       </c>
       <c r="F493" t="n">
-        <v>13.42</v>
+        <v>24.04</v>
       </c>
       <c r="G493" t="n">
-        <v>12.73</v>
+        <v>23.585</v>
       </c>
       <c r="H493" t="n">
-        <v>13.17</v>
+        <v>23.075</v>
       </c>
       <c r="I493" t="n">
-        <v>12.89</v>
+        <v>21.805</v>
       </c>
       <c r="J493" t="n">
-        <v>13.39</v>
+        <v>19.915</v>
       </c>
       <c r="K493" t="n">
-        <v>12.46</v>
+        <v>19.53</v>
       </c>
       <c r="L493" t="n">
-        <v>12.13</v>
+        <v>19.315</v>
       </c>
       <c r="M493" t="n">
-        <v>11.64</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="494">
@@ -20880,6 +20880,47 @@
         <v>19.73</v>
       </c>
       <c r="M498" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B499" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="C499" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D499" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="E499" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F499" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G499" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H499" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I499" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J499" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="K499" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L499" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M499" t="n">
         <v>18.83</v>
       </c>
     </row>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M499"/>
+  <dimension ref="A1:M500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20924,6 +20924,47 @@
         <v>18.83</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B500" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="C500" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D500" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="E500" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F500" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G500" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H500" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I500" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J500" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="K500" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L500" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M500" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M500"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20965,6 +20965,47 @@
         <v>18.83</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B501" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C501" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="D501" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="E501" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F501" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G501" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H501" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I501" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J501" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="K501" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L501" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M501" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M501"/>
+  <dimension ref="A1:M502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21006,6 +21006,47 @@
         <v>18.83</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B502" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C502" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="D502" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="E502" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="F502" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G502" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H502" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I502" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J502" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="K502" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L502" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M502" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21047,6 +21047,47 @@
         <v>18.83</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B503" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C503" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="D503" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="E503" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="F503" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G503" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H503" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I503" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J503" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="K503" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L503" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M503" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Russia.xlsx
+++ b/Bonds_Russia.xlsx
@@ -20654,28 +20654,28 @@
         <v>17.92</v>
       </c>
       <c r="F493" t="n">
-        <v>24.04</v>
+        <v>13.42</v>
       </c>
       <c r="G493" t="n">
-        <v>23.585</v>
+        <v>12.73</v>
       </c>
       <c r="H493" t="n">
-        <v>23.075</v>
+        <v>13.17</v>
       </c>
       <c r="I493" t="n">
-        <v>21.805</v>
+        <v>12.89</v>
       </c>
       <c r="J493" t="n">
-        <v>19.915</v>
+        <v>13.39</v>
       </c>
       <c r="K493" t="n">
-        <v>19.53</v>
+        <v>12.46</v>
       </c>
       <c r="L493" t="n">
-        <v>19.315</v>
+        <v>12.13</v>
       </c>
       <c r="M493" t="n">
-        <v>18.42</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="494">
